--- a/Dokumente/Arbeitsstundennachweis_Hiwi_offiziell.xlsx
+++ b/Dokumente/Arbeitsstundennachweis_Hiwi_offiziell.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="80" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,72 +30,89 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
-    <t>Arbeitsstundennachweis für studentische Hilfskräfte</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Tim-Niklas Reck</t>
-  </si>
-  <si>
-    <t>Projekt o. Kst-stelle:</t>
-  </si>
-  <si>
-    <t>FB/ FE:</t>
-  </si>
-  <si>
-    <t>Zeitraum:</t>
-  </si>
-  <si>
-    <t>Hinweis: Gemäß § 4 Arbeitszeitgesetz ist die Arbeit durch im voraus feststehende Ruhepausen von mindestens 30 Minuten bei einer Arbeitszeit von mehr als sechs bis zu neun Stunden und 45 Minuten bei einer Arbeitszeit von mehr als neun Stunden insgesamt zu unterbrechen.</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Wochen-      tag</t>
-  </si>
-  <si>
-    <t>Arbeitszeit                     von - bis</t>
-  </si>
-  <si>
-    <t>Pausen                        von - bis</t>
-  </si>
-  <si>
-    <t>tats. Arbeitszeit                  Std. Min.</t>
-  </si>
-  <si>
-    <t>Startzeit</t>
-  </si>
-  <si>
-    <t>Stunden gearbeitet</t>
-  </si>
-  <si>
-    <t>Tag (im Monat)</t>
-  </si>
-  <si>
-    <t>Monat</t>
-  </si>
-  <si>
-    <t>Jahr</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Summe tats. Arbeitszeit gem. vertraglicher Stundenzahl:</t>
+    <t xml:space="preserve">Arbeitsstundennachweis für studentische Hilfskräfte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim-Niklas Reck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projekt o. Kst-stelle:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB/ FE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeitraum:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinweis: Gemäß § 4 Arbeitszeitgesetz ist die Arbeit durch im voraus feststehende Ruhepausen von mindestens 30 Minuten bei einer Arbeitszeit von mehr als sechs bis zu neun Stunden und 45 Minuten bei einer Arbeitszeit von mehr als neun Stunden insgesamt zu unterbrechen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wochen-      tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeitszeit                  von - bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pausen                        von - bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tats. Arbeitszeit                  Std. Min.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startzeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunden gearbeitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag (im Monat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summe tats. Arbeitszeit gem. vertraglicher Stundenzahl:</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Mit meiner Unterschrift bestätige ich, dass ich meine abgeleistete</t>
     </r>
     <r>
@@ -144,14 +161,14 @@
     </r>
   </si>
   <si>
-    <t>Die Richtigkeit der Eintragungen
+    <t xml:space="preserve">Die Richtigkeit der Eintragungen
        wird hiermit bestätigt.</t>
   </si>
   <si>
-    <t>Unterschrift stud. Hilfskraft</t>
-  </si>
-  <si>
-    <t>Unterschrift FE-Leiter/ Projektleiter</t>
+    <t xml:space="preserve">Unterschrift stud. Hilfskraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterschrift FE-Leiter/ Projektleiter</t>
   </si>
 </sst>
 </file>
@@ -159,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MMMM\ YYYY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="167" formatCode="DDDD"/>
@@ -411,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,9 +449,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -456,69 +473,77 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -528,13 +553,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -577,31 +602,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -672,18 +672,18 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,7 +706,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,8 +747,8 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="8" t="n">
-        <f aca="false">DATE(K12, J12, 1)</f>
-        <v>41333</v>
+        <f aca="false">IF(K12 &gt; 0, DATE(K12, J12, 1), 0)</f>
+        <v>0</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -793,7 +793,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -825,281 +825,239 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="n">
         <f aca="false">IF(I12 &gt; 0, DATE($K$12, $J$12, I12), 0)</f>
-        <v>41333</v>
+        <v>0</v>
       </c>
       <c r="B12" s="17" t="n">
         <f aca="false">A12</f>
-        <v>41333</v>
-      </c>
-      <c r="C12" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18" t="n">
         <f aca="false">IF(G12 &gt; 0, TEXT(G12,"hh:mm")&amp;"-"&amp;TEXT(G12+(H12/24),"hh:mm"), 0)</f>
-        <v>12:00-16:00</v>
+        <v>0</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="19" t="n">
         <f aca="false">H12/24</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G12" s="20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="22" t="n">
-        <v>2017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
         <f aca="false">IF(I13 &gt; 0, DATE($K$12, $J$12, I13), 0)</f>
-        <v>41336</v>
+        <v>0</v>
       </c>
       <c r="B13" s="17" t="n">
         <f aca="false">A13</f>
-        <v>41336</v>
-      </c>
-      <c r="C13" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18" t="n">
         <f aca="false">IF(G13 &gt; 0, TEXT(G13,"hh:mm")&amp;"-"&amp;TEXT(G13+(H13/24),"hh:mm"), 0)</f>
-        <v>12:00-16:00</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="19" t="n">
         <f aca="false">H13/24</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G13" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="21" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="n">
         <f aca="false">IF(I14 &gt; 0, DATE($K$12, $J$12, I14), 0)</f>
-        <v>41339</v>
+        <v>0</v>
       </c>
       <c r="B14" s="17" t="n">
         <f aca="false">A14</f>
-        <v>41339</v>
-      </c>
-      <c r="C14" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18" t="n">
         <f aca="false">IF(G14 &gt; 0, TEXT(G14,"hh:mm")&amp;"-"&amp;TEXT(G14+(H14/24),"hh:mm"), 0)</f>
-        <v>12:00-16:00</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="19" t="n">
         <f aca="false">H14/24</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G14" s="20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" s="21" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="n">
         <f aca="false">IF(I15 &gt; 0, DATE($K$12, $J$12, I15), 0)</f>
-        <v>41342</v>
+        <v>0</v>
       </c>
       <c r="B15" s="17" t="n">
         <f aca="false">A15</f>
-        <v>41342</v>
-      </c>
-      <c r="C15" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18" t="n">
         <f aca="false">IF(G15 &gt; 0, TEXT(G15,"hh:mm")&amp;"-"&amp;TEXT(G15+(H15/24),"hh:mm"), 0)</f>
-        <v>12:00-16:00</v>
+        <v>0</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="19" t="n">
         <f aca="false">H15/24</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G15" s="20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" s="21" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="n">
         <f aca="false">IF(I16 &gt; 0, DATE($K$12, $J$12, I16), 0)</f>
-        <v>41345</v>
+        <v>0</v>
       </c>
       <c r="B16" s="17" t="n">
         <f aca="false">A16</f>
-        <v>41345</v>
-      </c>
-      <c r="C16" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18" t="n">
         <f aca="false">IF(G16 &gt; 0, TEXT(G16,"hh:mm")&amp;"-"&amp;TEXT(G16+(H16/24),"hh:mm"), 0)</f>
-        <v>12:00-16:00</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="19" t="n">
         <f aca="false">H16/24</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G16" s="20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" s="21" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="n">
         <f aca="false">IF(I17 &gt; 0, DATE($K$12, $J$12, I17), 0)</f>
-        <v>41348</v>
+        <v>0</v>
       </c>
       <c r="B17" s="17" t="n">
         <f aca="false">A17</f>
-        <v>41348</v>
-      </c>
-      <c r="C17" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18" t="n">
         <f aca="false">IF(G17 &gt; 0, TEXT(G17,"hh:mm")&amp;"-"&amp;TEXT(G17+(H17/24),"hh:mm"), 0)</f>
-        <v>12:00-16:00</v>
+        <v>0</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="19" t="n">
         <f aca="false">H17/24</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G17" s="20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" s="21" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="n">
         <f aca="false">IF(I18 &gt; 0, DATE($K$12, $J$12, I18), 0)</f>
-        <v>41351</v>
+        <v>0</v>
       </c>
       <c r="B18" s="17" t="n">
         <f aca="false">A18</f>
-        <v>41351</v>
-      </c>
-      <c r="C18" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18" t="n">
         <f aca="false">IF(G18 &gt; 0, TEXT(G18,"hh:mm")&amp;"-"&amp;TEXT(G18+(H18/24),"hh:mm"), 0)</f>
-        <v>12:00-16:00</v>
+        <v>0</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="19" t="n">
         <f aca="false">H18/24</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G18" s="20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" s="21" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
         <f aca="false">IF(I19 &gt; 0, DATE($K$12, $J$12, I19), 0)</f>
-        <v>41354</v>
+        <v>0</v>
       </c>
       <c r="B19" s="17" t="n">
         <f aca="false">A19</f>
-        <v>41354</v>
-      </c>
-      <c r="C19" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18" t="n">
         <f aca="false">IF(G19 &gt; 0, TEXT(G19,"hh:mm")&amp;"-"&amp;TEXT(G19+(H19/24),"hh:mm"), 0)</f>
-        <v>12:00-16:00</v>
+        <v>0</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="19" t="n">
         <f aca="false">H19/24</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G19" s="20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H19" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" s="21" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <f aca="false">IF(I20 &gt; 0, DATE($K$12, $J$12, I20), 0)</f>
-        <v>41357</v>
+        <v>0</v>
       </c>
       <c r="B20" s="17" t="n">
         <f aca="false">A20</f>
-        <v>41357</v>
-      </c>
-      <c r="C20" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18" t="n">
         <f aca="false">IF(G20 &gt; 0, TEXT(G20,"hh:mm")&amp;"-"&amp;TEXT(G20+(H20/24),"hh:mm"), 0)</f>
-        <v>12:00-14:30</v>
+        <v>0</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="19" t="n">
         <f aca="false">H20/24</f>
-        <v>0.104166666666667</v>
-      </c>
-      <c r="G20" s="20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I20" s="21" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
@@ -1122,8 +1080,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="n">
@@ -1146,8 +1106,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="n">
@@ -1170,8 +1132,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
@@ -1194,8 +1158,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="n">
@@ -1218,8 +1184,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="n">
@@ -1242,8 +1210,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
@@ -1266,8 +1236,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="20"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="n">
@@ -1290,8 +1262,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
@@ -1314,8 +1288,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="n">
@@ -1338,8 +1314,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="n">
@@ -1362,8 +1340,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="n">
@@ -1386,8 +1366,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="20"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="n">
@@ -1410,8 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="20"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="n">
@@ -1434,8 +1418,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="n">
@@ -1458,9 +1444,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="23"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="n">
@@ -1483,8 +1470,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="n">
@@ -1507,8 +1496,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="n">
@@ -1531,8 +1522,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="n">
@@ -1555,8 +1548,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="20"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="n">
@@ -1574,65 +1569,67 @@
       <c r="D40" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="24" t="n">
+      <c r="E40" s="26" t="n">
         <f aca="false">H40/24</f>
         <v>0</v>
       </c>
       <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" s="27" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="s">
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" s="29" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26" t="n">
-        <f aca="false">SUM(E12:E40)</f>
-        <v>1.4375</v>
-      </c>
-      <c r="G41" s="28"/>
-    </row>
-    <row r="42" s="31" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29" t="s">
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28" t="n">
+        <f aca="false">SUM(H12:H40)/24</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" s="33" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" s="36" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-    </row>
-    <row r="45" s="38" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37" t="s">
+    <row r="44" s="38" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+    </row>
+    <row r="45" s="40" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="D45" s="37" t="s">
+      <c r="B45" s="39"/>
+      <c r="D45" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="37"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1650,14 +1647,6 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="D45:E45"/>
   </mergeCells>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.196527777777778" top="0.747916666666667" bottom="0.196527777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1681,7 +1670,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1707,7 +1696,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
